--- a/src/test.xlsx
+++ b/src/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27975" windowHeight="11895"/>
+    <workbookView windowHeight="12015" windowWidth="27975"/>
   </bookViews>
   <sheets>
     <sheet name="化学试剂验收记录表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>测试表格</t>
   </si>
@@ -28,34 +28,31 @@
     <t>共  页</t>
   </si>
   <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>规格</t>
-  </si>
-  <si>
-    <t>纯度</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>单位</t>
-  </si>
-  <si>
-    <t>外包装</t>
-  </si>
-  <si>
-    <t>质量检查</t>
-  </si>
-  <si>
-    <t>其它检查</t>
-  </si>
-  <si>
-    <t>验收结论</t>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>ee</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>gg</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>ii</t>
   </si>
   <si>
     <t>采购人：</t>
@@ -70,14 +67,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -91,7 +88,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b>false</b>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -104,6 +101,12 @@
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Nimbus Roman No9 L"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -125,14 +128,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b>false</b>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b>false</b>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
@@ -140,27 +144,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="2"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color indexed="4"/>
@@ -169,23 +152,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b>false</b>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
@@ -193,15 +180,30 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color indexed="2"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i>false</i>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b>false</b>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b>false</b>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
@@ -209,14 +211,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Arial"/>
@@ -225,7 +219,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -238,7 +232,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b>false</b>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b>false</b>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -246,16 +248,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b>false</b>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -263,10 +266,16 @@
   </fonts>
   <fills count="18">
     <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="none">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -276,91 +285,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599994"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399976"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399976"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399976"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399976"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399976"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599994"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399976"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399976"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,19 +458,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="5" tint="0.499985"/>
+      <bottom style="medium">
+        <color theme="5" tint="0.399976"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="5"/>
-      </top>
-      <bottom style="double">
-        <color theme="5"/>
+      <top/>
+      <bottom style="thick">
+        <color theme="5" tint="0.499985"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,6 +484,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,48 +544,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
+      <top style="thin">
         <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="5" tint="0.399976"/>
+        <color theme="5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,152 +558,152 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center"/>
@@ -712,6 +721,9 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -723,7 +735,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -779,13 +791,90 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2" descr="sign.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="false"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="false" fPrintsWithSheet="true"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 3" descr="sign.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="false"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="false" fPrintsWithSheet="true"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1002,25 +1091,25 @@
   <sheetPr/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="true" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="true"/>
   <cols>
-    <col min="1" max="1" width="8.87407407407407" style="1" customWidth="true"/>
-    <col min="2" max="2" width="27.8740740740741" style="1" customWidth="true"/>
-    <col min="3" max="3" width="12.7481481481481" style="1" customWidth="true"/>
-    <col min="4" max="4" width="9" style="1" customWidth="true"/>
-    <col min="5" max="5" width="10.7481481481481" style="1" customWidth="true"/>
-    <col min="6" max="6" width="9.37777777777778" style="1" customWidth="true"/>
-    <col min="7" max="7" width="8.5037037037037" style="1" customWidth="true"/>
-    <col min="8" max="8" width="17.8740740740741" style="1" customWidth="true"/>
-    <col min="9" max="9" width="10.7481481481481" style="1" customWidth="true"/>
-    <col min="10" max="10" width="10.5037037037037" style="1" customWidth="true"/>
+    <col customWidth="true" max="1" min="1" style="1" width="8.87407407407407"/>
+    <col customWidth="true" max="2" min="2" style="1" width="27.8740740740741"/>
+    <col customWidth="true" max="3" min="3" style="1" width="12.7481481481481"/>
+    <col customWidth="true" max="4" min="4" style="1" width="9"/>
+    <col customWidth="true" max="5" min="5" style="1" width="10.7481481481481"/>
+    <col customWidth="true" max="6" min="6" style="1" width="9.37777777777778"/>
+    <col customWidth="true" max="7" min="7" style="1" width="8.5037037037037"/>
+    <col customWidth="true" max="8" min="8" style="1" width="17.8740740740741"/>
+    <col customWidth="true" max="9" min="9" style="1" width="10.7481481481481"/>
+    <col customWidth="true" max="10" min="10" style="1" width="10.5037037037037"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="true" spans="1:10">
+    <row r="1" spans="1:10" ht="30" customHeight="true">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1034,7 +1123,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" ht="27" customHeight="true" spans="1:10">
+    <row r="2" spans="1:10" ht="27" customHeight="true">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1052,7 +1141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="49.5" customHeight="true" spans="1:10">
+    <row r="3" spans="1:10" ht="49.5" customHeight="true">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1068,10 +1157,10 @@
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -1081,256 +1170,256 @@
         <v>12</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24" customHeight="true">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="25" customHeight="true">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="24" customHeight="true">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="19" customHeight="true">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="24" customHeight="true">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="24" customHeight="true">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="24" customHeight="true">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="24" customHeight="true">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="24" customHeight="true">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="24" customHeight="true">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="24" customHeight="true">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" ht="24" customHeight="true">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" ht="24" customHeight="true">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" ht="24" customHeight="true">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" ht="24" customHeight="true">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" ht="24" customHeight="true">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" ht="45" customHeight="true">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" ht="24" customHeight="true">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" ht="45" customHeight="true">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" ht="45" customHeight="true">
+      <c r="A23" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" ht="24" customHeight="true" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" ht="25" customHeight="true" spans="1:10">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" ht="24" customHeight="true" spans="1:10">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" ht="19" customHeight="true" spans="1:10">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" ht="24" customHeight="true" spans="1:10">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" ht="24" customHeight="true" spans="1:10">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" ht="24" customHeight="true" spans="1:10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" ht="24" customHeight="true" spans="1:10">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" ht="24" customHeight="true" spans="1:10">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" ht="24" customHeight="true" spans="1:10">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" ht="24" customHeight="true" spans="1:10">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" ht="24" customHeight="true" spans="1:10">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" ht="24" customHeight="true" spans="1:10">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" ht="24" customHeight="true" spans="1:10">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" ht="24" customHeight="true" spans="1:10">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" ht="24" customHeight="true" spans="1:10">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" ht="45" customHeight="true" spans="1:10">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" ht="24" customHeight="true" spans="1:10">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" ht="45" customHeight="true" spans="1:10">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" ht="45" customHeight="true" spans="1:10">
-      <c r="A23" s="7" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" ht="45" customHeight="true"/>
     <row r="25" ht="45" customHeight="true"/>
@@ -1343,8 +1432,9 @@
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="I23:J23"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="true" horizontalDpi="600" verticalDpi="600"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup horizontalDpi="600" orientation="portrait" paperSize="9" useFirstPageNumber="true" verticalDpi="600"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test.xlsx
+++ b/src/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12015" windowWidth="27975"/>
+    <workbookView windowWidth="31100" windowHeight="15300"/>
   </bookViews>
   <sheets>
     <sheet name="化学试剂验收记录表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>测试表格</t>
   </si>
@@ -67,12 +67,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -88,7 +88,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b>false</b>
+      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -128,15 +128,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b>false</b>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b>false</b>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="2"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
@@ -144,35 +150,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="4"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b>false</b>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
@@ -180,30 +158,21 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="2"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i>false</i>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b>false</b>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b>false</b>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
@@ -218,6 +187,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="4"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
@@ -225,40 +248,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b>false</b>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b>false</b>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b>false</b>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -266,16 +266,10 @@
   </fonts>
   <fills count="18">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -285,55 +279,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399976"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399976"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399976"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599994"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399976"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399976"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399976"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,31 +363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399976"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799982"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,61 +381,61 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,15 +445,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="5" tint="0.399976"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,6 +473,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom style="double">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -506,8 +511,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="5"/>
+      <bottom style="medium">
+        <color theme="5" tint="0.399976"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,159 +546,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="5"/>
-      </top>
-      <bottom style="double">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
@@ -704,39 +698,39 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="justify" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -791,7 +785,7 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -801,78 +795,78 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1069340</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>459740</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2" descr="sign.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="false"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPr id="4" name="Picture 2" descr="sign.png"/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
+          <a:off x="6122670" y="7473315"/>
+          <a:ext cx="1047115" cy="447675"/>
         </a:xfrm>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="false" fPrintsWithSheet="true"/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>140970</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1162050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:colOff>1188085</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>491490</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 3" descr="sign.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="false"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPr id="5" name="Picture 3" descr="sign.png"/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
+          <a:off x="727075" y="7505065"/>
+          <a:ext cx="1047115" cy="447675"/>
         </a:xfrm>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="false" fPrintsWithSheet="true"/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
@@ -956,7 +950,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="true"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -979,7 +973,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="false"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1087,29 +1081,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="true"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col customWidth="true" max="1" min="1" style="1" width="8.87407407407407"/>
-    <col customWidth="true" max="2" min="2" style="1" width="27.8740740740741"/>
-    <col customWidth="true" max="3" min="3" style="1" width="12.7481481481481"/>
-    <col customWidth="true" max="4" min="4" style="1" width="9"/>
-    <col customWidth="true" max="5" min="5" style="1" width="10.7481481481481"/>
-    <col customWidth="true" max="6" min="6" style="1" width="9.37777777777778"/>
-    <col customWidth="true" max="7" min="7" style="1" width="8.5037037037037"/>
-    <col customWidth="true" max="8" min="8" style="1" width="17.8740740740741"/>
-    <col customWidth="true" max="9" min="9" style="1" width="10.7481481481481"/>
-    <col customWidth="true" max="10" min="10" style="1" width="10.5037037037037"/>
+    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="true">
+    <row r="1" ht="30" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1123,7 +1117,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="27" customHeight="true">
+    <row r="2" ht="27" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1141,7 +1135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="49.5" customHeight="true">
+    <row r="3" ht="49.5" customHeight="1" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1173,7 +1167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="24" customHeight="true">
+    <row r="4" ht="40" customHeight="1" spans="1:10">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1185,7 +1179,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="25" customHeight="true">
+    <row r="5" ht="25" customHeight="1" spans="1:10">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1197,7 +1191,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="24" customHeight="true">
+    <row r="6" ht="24" customHeight="1" spans="1:10">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1209,7 +1203,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" ht="19" customHeight="true">
+    <row r="7" ht="19" customHeight="1" spans="1:10">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1221,7 +1215,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="24" customHeight="true">
+    <row r="8" ht="24" customHeight="1" spans="1:10">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1233,7 +1227,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="24" customHeight="true">
+    <row r="9" ht="24" customHeight="1" spans="1:10">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1245,7 +1239,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="24" customHeight="true">
+    <row r="10" ht="24" customHeight="1" spans="1:10">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1257,7 +1251,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="24" customHeight="true">
+    <row r="11" ht="24" customHeight="1" spans="1:10">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1269,7 +1263,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="24" customHeight="true">
+    <row r="12" ht="24" customHeight="1" spans="1:10">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1281,7 +1275,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="24" customHeight="true">
+    <row r="13" ht="24" customHeight="1" spans="1:10">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1293,7 +1287,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" ht="24" customHeight="true">
+    <row r="14" ht="24" customHeight="1" spans="1:10">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1305,7 +1299,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="24" customHeight="true">
+    <row r="15" ht="24" customHeight="1" spans="1:10">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1317,7 +1311,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="24" customHeight="true">
+    <row r="16" ht="24" customHeight="1" spans="1:10">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1329,7 +1323,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" ht="24" customHeight="true">
+    <row r="17" ht="24" customHeight="1" spans="1:10">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1341,7 +1335,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="24" customHeight="true">
+    <row r="18" ht="24" customHeight="1" spans="1:10">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1353,7 +1347,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="24" customHeight="true">
+    <row r="19" ht="24" customHeight="1" spans="1:10">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1365,7 +1359,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" ht="45" customHeight="true">
+    <row r="20" ht="30" customHeight="1" spans="1:10">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1377,7 +1371,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" ht="24" customHeight="true">
+    <row r="21" ht="24" customHeight="1" spans="1:10">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1389,7 +1383,7 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" ht="45" customHeight="true">
+    <row r="22" ht="31" customHeight="1" spans="1:10">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1401,7 +1395,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10" ht="45" customHeight="true">
+    <row r="23" ht="45" customHeight="1" spans="1:10">
       <c r="A23" s="8" t="s">
         <v>13</v>
       </c>
@@ -1421,9 +1415,9 @@
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" ht="45" customHeight="true"/>
-    <row r="25" ht="45" customHeight="true"/>
-    <row r="26" ht="45" customHeight="true"/>
+    <row r="24" ht="45" customHeight="1"/>
+    <row r="25" ht="45" customHeight="1"/>
+    <row r="26" ht="45" customHeight="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
@@ -1432,8 +1426,8 @@
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="I23:J23"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup horizontalDpi="600" orientation="portrait" paperSize="9" useFirstPageNumber="true" verticalDpi="600"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="600" verticalDpi="600"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/test.xlsx
+++ b/src/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31100" windowHeight="15300"/>
+    <workbookView windowWidth="23550" windowHeight="11895"/>
   </bookViews>
   <sheets>
     <sheet name="化学试剂验收记录表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>测试表格</t>
   </si>
@@ -69,8 +69,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -128,15 +128,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="2"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -150,6 +144,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="4"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -172,6 +181,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="2"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -181,7 +243,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -189,53 +251,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="4"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -243,22 +259,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -279,37 +279,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399976"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399976"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399976"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399976"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399976"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,49 +345,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599994"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399976"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599994"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399976"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,61 +381,61 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,8 +452,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="5" tint="0.399976"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color theme="5" tint="0.499985"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom style="double">
+        <color theme="5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,41 +532,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="5"/>
-      </top>
-      <bottom style="double">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="5" tint="0.399976"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -531,163 +546,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
@@ -698,39 +698,39 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="justify" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -792,83 +792,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>12065</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1069340</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>459740</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 2" descr="sign.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6122670" y="7473315"/>
-          <a:ext cx="1047115" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>140970</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>43815</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1188085</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>491490</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 3" descr="sign.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="727075" y="7505065"/>
-          <a:ext cx="1047115" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -950,7 +873,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="true"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -973,7 +896,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1081,29 +1004,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="true"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.87407407407407" style="1" customWidth="true"/>
+    <col min="2" max="2" width="27.8740740740741" style="1" customWidth="true"/>
+    <col min="3" max="3" width="12.7481481481481" style="1" customWidth="true"/>
+    <col min="4" max="4" width="9" style="1" customWidth="true"/>
+    <col min="5" max="5" width="16" style="1" customWidth="true"/>
+    <col min="6" max="6" width="9.37777777777778" style="1" customWidth="true"/>
+    <col min="7" max="7" width="8.5037037037037" style="1" customWidth="true"/>
+    <col min="8" max="8" width="17.8740740740741" style="1" customWidth="true"/>
+    <col min="9" max="9" width="10.7481481481481" style="1" customWidth="true"/>
+    <col min="10" max="10" width="10.5037037037037" style="1" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:10">
+    <row r="1" ht="30" customHeight="true" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1117,7 +1040,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" ht="27" customHeight="1" spans="1:10">
+    <row r="2" ht="27" customHeight="true" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1135,7 +1058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="49.5" customHeight="1" spans="1:10">
+    <row r="3" ht="49.5" customHeight="true" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1167,7 +1090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="40" customHeight="1" spans="1:10">
+    <row r="4" ht="40" customHeight="true" spans="1:10">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1179,7 +1102,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" ht="25" customHeight="1" spans="1:10">
+    <row r="5" ht="25" customHeight="true" spans="1:10">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1191,7 +1114,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" ht="24" customHeight="1" spans="1:10">
+    <row r="6" ht="24" customHeight="true" spans="1:10">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1203,7 +1126,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" ht="19" customHeight="1" spans="1:10">
+    <row r="7" ht="19" customHeight="true" spans="1:10">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1215,7 +1138,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" ht="24" customHeight="1" spans="1:10">
+    <row r="8" ht="24" customHeight="true" spans="1:10">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1227,7 +1150,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" ht="24" customHeight="1" spans="1:10">
+    <row r="9" ht="24" customHeight="true" spans="1:10">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1239,7 +1162,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" ht="24" customHeight="1" spans="1:10">
+    <row r="10" ht="24" customHeight="true" spans="1:10">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1251,7 +1174,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" ht="24" customHeight="1" spans="1:10">
+    <row r="11" ht="24" customHeight="true" spans="1:10">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1263,7 +1186,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" ht="24" customHeight="1" spans="1:10">
+    <row r="12" ht="24" customHeight="true" spans="1:10">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1275,7 +1198,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" ht="24" customHeight="1" spans="1:10">
+    <row r="13" ht="24" customHeight="true" spans="1:10">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1287,7 +1210,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" ht="24" customHeight="1" spans="1:10">
+    <row r="14" ht="24" customHeight="true" spans="1:10">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1299,7 +1222,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" ht="24" customHeight="1" spans="1:10">
+    <row r="15" ht="24" customHeight="true" spans="1:10">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1311,7 +1234,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" ht="24" customHeight="1" spans="1:10">
+    <row r="16" ht="24" customHeight="true" spans="1:10">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1323,7 +1246,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" ht="24" customHeight="1" spans="1:10">
+    <row r="17" ht="24" customHeight="true" spans="1:10">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1335,7 +1258,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" ht="24" customHeight="1" spans="1:10">
+    <row r="18" ht="24" customHeight="true" spans="1:10">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1347,7 +1270,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" ht="24" customHeight="1" spans="1:10">
+    <row r="19" ht="24" customHeight="true" spans="1:10">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1359,7 +1282,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" ht="30" customHeight="1" spans="1:10">
+    <row r="20" ht="18" customHeight="true" spans="1:10">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1371,7 +1294,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" ht="24" customHeight="1" spans="1:10">
+    <row r="21" ht="24" customHeight="true" spans="1:10">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1383,7 +1306,7 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" ht="31" customHeight="1" spans="1:10">
+    <row r="22" ht="21" customHeight="true" spans="1:10">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1395,7 +1318,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" ht="45" customHeight="1" spans="1:10">
+    <row r="23" ht="70" customHeight="true" spans="1:10">
       <c r="A23" s="8" t="s">
         <v>13</v>
       </c>
@@ -1415,9 +1338,9 @@
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" ht="45" customHeight="1"/>
-    <row r="25" ht="45" customHeight="1"/>
-    <row r="26" ht="45" customHeight="1"/>
+    <row r="24" ht="22" customHeight="true"/>
+    <row r="25" ht="21" customHeight="true"/>
+    <row r="26" ht="21" customHeight="true"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
@@ -1427,8 +1350,7 @@
     <mergeCell ref="I23:J23"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="600" verticalDpi="600"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="true" horizontalDpi="600" verticalDpi="600"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>